--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/DISTRICT_OF_COLUMBIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/DISTRICT_OF_COLUMBIA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C4">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C7">
@@ -592,7 +592,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C20">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C38">
@@ -950,7 +950,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C43">
@@ -989,7 +989,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C46">
@@ -1028,7 +1028,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C49">
@@ -1054,7 +1054,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C51">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C53">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C55">
@@ -1217,7 +1217,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C62">
@@ -1331,7 +1331,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C70">
@@ -1344,7 +1344,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C71">
@@ -1479,7 +1479,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C81">
@@ -1557,7 +1557,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C87">
@@ -1583,7 +1583,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C89">
@@ -1596,7 +1596,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1985,41 +1985,6 @@
       </c>
       <c r="D117">
         <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/DISTRICT_OF_COLUMBIA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/DISTRICT_OF_COLUMBIA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -930,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Chahuites</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Chalcatongo De Hidalgo</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>San Juan Atenco</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tepemaxalco</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1734,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1796,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -1809,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1840,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -1853,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Naolinco</t>
@@ -1866,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1879,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -1892,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -1905,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1949,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1962,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
